--- a/Advanced_Algorithms_Project_plan_EB-JR_JM-JB-AD_start.xlsx
+++ b/Advanced_Algorithms_Project_plan_EB-JR_JM-JB-AD_start.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8205" yWindow="0" windowWidth="27630" windowHeight="13020"/>
+    <workbookView xWindow="9375" yWindow="0" windowWidth="27630" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="2" r:id="rId1"/>
@@ -1348,6 +1348,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1362,12 +1368,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1632,7 +1632,7 @@
   <dimension ref="B1:BQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -1680,85 +1680,85 @@
       <c r="H2" s="112" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="129"/>
-      <c r="L2" s="129"/>
-      <c r="M2" s="129"/>
-      <c r="N2" s="129"/>
-      <c r="O2" s="129"/>
-      <c r="P2" s="129"/>
-      <c r="Q2" s="129"/>
-      <c r="R2" s="129"/>
-      <c r="S2" s="129"/>
-      <c r="T2" s="129"/>
-      <c r="U2" s="129"/>
-      <c r="V2" s="129"/>
-      <c r="W2" s="129"/>
-      <c r="X2" s="128" t="s">
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" s="129"/>
-      <c r="Z2" s="129"/>
-      <c r="AA2" s="129"/>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="129"/>
-      <c r="AD2" s="129"/>
-      <c r="AE2" s="129"/>
-      <c r="AF2" s="129"/>
-      <c r="AG2" s="129"/>
-      <c r="AH2" s="129"/>
-      <c r="AI2" s="129"/>
-      <c r="AJ2" s="129"/>
-      <c r="AK2" s="129"/>
-      <c r="AL2" s="129"/>
-      <c r="AM2" s="129"/>
-      <c r="AN2" s="129"/>
-      <c r="AO2" s="129"/>
-      <c r="AP2" s="129"/>
-      <c r="AQ2" s="129"/>
-      <c r="AR2" s="129"/>
-      <c r="AS2" s="129"/>
-      <c r="AT2" s="129"/>
-      <c r="AU2" s="129"/>
-      <c r="AV2" s="129"/>
-      <c r="AW2" s="129"/>
-      <c r="AX2" s="129"/>
-      <c r="AY2" s="129"/>
-      <c r="AZ2" s="129"/>
-      <c r="BA2" s="130"/>
-      <c r="BB2" s="129" t="s">
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="131"/>
+      <c r="AE2" s="131"/>
+      <c r="AF2" s="131"/>
+      <c r="AG2" s="131"/>
+      <c r="AH2" s="131"/>
+      <c r="AI2" s="131"/>
+      <c r="AJ2" s="131"/>
+      <c r="AK2" s="131"/>
+      <c r="AL2" s="131"/>
+      <c r="AM2" s="131"/>
+      <c r="AN2" s="131"/>
+      <c r="AO2" s="131"/>
+      <c r="AP2" s="131"/>
+      <c r="AQ2" s="131"/>
+      <c r="AR2" s="131"/>
+      <c r="AS2" s="131"/>
+      <c r="AT2" s="131"/>
+      <c r="AU2" s="131"/>
+      <c r="AV2" s="131"/>
+      <c r="AW2" s="131"/>
+      <c r="AX2" s="131"/>
+      <c r="AY2" s="131"/>
+      <c r="AZ2" s="131"/>
+      <c r="BA2" s="132"/>
+      <c r="BB2" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="BC2" s="129"/>
-      <c r="BD2" s="129"/>
-      <c r="BE2" s="129"/>
-      <c r="BF2" s="129"/>
-      <c r="BG2" s="129"/>
-      <c r="BH2" s="129"/>
-      <c r="BI2" s="129"/>
-      <c r="BJ2" s="129"/>
-      <c r="BK2" s="129"/>
-      <c r="BL2" s="129"/>
-      <c r="BM2" s="129"/>
-      <c r="BN2" s="129"/>
-      <c r="BO2" s="129"/>
-      <c r="BP2" s="129"/>
-      <c r="BQ2" s="130"/>
+      <c r="BC2" s="131"/>
+      <c r="BD2" s="131"/>
+      <c r="BE2" s="131"/>
+      <c r="BF2" s="131"/>
+      <c r="BG2" s="131"/>
+      <c r="BH2" s="131"/>
+      <c r="BI2" s="131"/>
+      <c r="BJ2" s="131"/>
+      <c r="BK2" s="131"/>
+      <c r="BL2" s="131"/>
+      <c r="BM2" s="131"/>
+      <c r="BN2" s="131"/>
+      <c r="BO2" s="131"/>
+      <c r="BP2" s="131"/>
+      <c r="BQ2" s="132"/>
     </row>
     <row r="3" spans="2:69" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="107"/>
       <c r="C3" s="107"/>
-      <c r="D3" s="131" t="s">
+      <c r="D3" s="133" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="132"/>
-      <c r="F3" s="131" t="s">
+      <c r="E3" s="134"/>
+      <c r="F3" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="132"/>
+      <c r="G3" s="134"/>
       <c r="H3" s="109" t="s">
         <v>10</v>
       </c>
@@ -2165,8 +2165,12 @@
       <c r="E5" s="14">
         <v>14</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="28">
+        <v>42668</v>
+      </c>
+      <c r="G5" s="14">
+        <v>7</v>
+      </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -2246,7 +2250,9 @@
       <c r="F6" s="28">
         <v>42661</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="14">
+        <v>5</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="50"/>
@@ -2323,8 +2329,12 @@
       <c r="E7" s="14">
         <v>7</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="14"/>
+      <c r="F7" s="28">
+        <v>42683</v>
+      </c>
+      <c r="G7" s="14">
+        <v>7</v>
+      </c>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -2401,8 +2411,12 @@
       <c r="E8" s="14">
         <v>14</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
+      <c r="F8" s="28">
+        <v>42683</v>
+      </c>
+      <c r="G8" s="14">
+        <v>7</v>
+      </c>
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
@@ -2479,8 +2493,12 @@
       <c r="E9" s="14">
         <v>14</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
+      <c r="F9" s="28">
+        <v>42684</v>
+      </c>
+      <c r="G9" s="14">
+        <v>7</v>
+      </c>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -2560,9 +2578,11 @@
         <v>7</v>
       </c>
       <c r="F10" s="28">
-        <v>42662</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>42661</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -2627,7 +2647,7 @@
       <c r="BQ10" s="24"/>
     </row>
     <row r="11" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="128" t="s">
         <v>24</v>
       </c>
       <c r="C11" s="123" t="s">
@@ -2705,7 +2725,7 @@
       <c r="BQ11" s="24"/>
     </row>
     <row r="12" spans="2:69" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="133"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="123" t="s">
         <v>33</v>
       </c>
@@ -2779,7 +2799,7 @@
       <c r="BQ12" s="24"/>
     </row>
     <row r="13" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="128" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="123" t="s">
@@ -2857,7 +2877,7 @@
       <c r="BQ13" s="24"/>
     </row>
     <row r="14" spans="2:69" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="133"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="123" t="s">
         <v>33</v>
       </c>
@@ -2931,7 +2951,7 @@
       <c r="BQ14" s="24"/>
     </row>
     <row r="15" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="128" t="s">
         <v>26</v>
       </c>
       <c r="C15" s="123" t="s">
@@ -3011,7 +3031,7 @@
       <c r="BQ15" s="24"/>
     </row>
     <row r="16" spans="2:69" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="133"/>
+      <c r="B16" s="128"/>
       <c r="C16" s="123" t="s">
         <v>34</v>
       </c>
@@ -3085,7 +3105,7 @@
       <c r="BQ16" s="24"/>
     </row>
     <row r="17" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="128" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="123" t="s">
@@ -3163,7 +3183,7 @@
       <c r="BQ17" s="24"/>
     </row>
     <row r="18" spans="2:69" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="133"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="123" t="s">
         <v>43</v>
       </c>
@@ -3237,7 +3257,7 @@
       <c r="BQ18" s="24"/>
     </row>
     <row r="19" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="133" t="s">
+      <c r="B19" s="128" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="123" t="s">
@@ -3317,7 +3337,7 @@
       <c r="BQ19" s="24"/>
     </row>
     <row r="20" spans="2:69" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="133"/>
+      <c r="B20" s="128"/>
       <c r="C20" s="123" t="s">
         <v>36</v>
       </c>
@@ -3547,7 +3567,7 @@
       <c r="BQ22" s="24"/>
     </row>
     <row r="23" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="128" t="s">
         <v>31</v>
       </c>
       <c r="C23" s="123" t="s">
@@ -3625,7 +3645,7 @@
       <c r="BQ23" s="24"/>
     </row>
     <row r="24" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="133"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="123" t="s">
         <v>35</v>
       </c>
@@ -3701,7 +3721,7 @@
       <c r="BQ24" s="24"/>
     </row>
     <row r="25" spans="2:69" ht="18.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="133"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="123" t="s">
         <v>43</v>
       </c>
@@ -3777,7 +3797,7 @@
       <c r="BQ25" s="24"/>
     </row>
     <row r="26" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="128" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="123" t="s">
@@ -3855,7 +3875,7 @@
       <c r="BQ26" s="24"/>
     </row>
     <row r="27" spans="2:69" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="134"/>
+      <c r="B27" s="129"/>
       <c r="C27" s="124" t="s">
         <v>36</v>
       </c>
@@ -3965,6 +3985,11 @@
   </sheetData>
   <autoFilter ref="B4:G27"/>
   <mergeCells count="12">
+    <mergeCell ref="I2:W2"/>
+    <mergeCell ref="X2:BA2"/>
+    <mergeCell ref="BB2:BQ2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B13:B14"/>
@@ -3972,11 +3997,6 @@
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="I2:W2"/>
-    <mergeCell ref="X2:BA2"/>
-    <mergeCell ref="BB2:BQ2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
